--- a/assets/excel/exp/pl/11.3.1_PL.xlsx
+++ b/assets/excel/exp/pl/11.3.1_PL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Excele rankingujące\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380ACF3-F229-4A00-8062-38DDF5603831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375FBA22-0A85-403B-AE0E-FBE17B11C327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Kielce</t>
   </si>
   <si>
-    <t>Krakow</t>
-  </si>
-  <si>
     <t>Lublin</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
   </si>
   <si>
     <t>Polska</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Miasto</t>
   </si>
   <si>
     <t>Powierzchnia  terenów zabudowanych w 2015 roku 
@@ -182,9 +173,6 @@
     <t xml:space="preserve">Wskaźnik zmiany populacji </t>
   </si>
   <si>
-    <t xml:space="preserve">Stosunek zużycia gruntów do tempa zmiany liczby ludności </t>
-  </si>
-  <si>
     <t xml:space="preserve">Zużycie gruntów na mieszkańca 2015 roku [m2/osobę]  </t>
   </si>
   <si>
@@ -195,6 +183,18 @@
   </si>
   <si>
     <t>Zmiana zużycia gruntów na mieszkańca [%]</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>11.3.1 Relacja wskaźnika zużycia gruntów do tempa wzrostu liczby ludności</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -721,40 +721,40 @@
     </row>
     <row r="2" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>57.94</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>21.184000000000001</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>104.767</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>93.004999999999995</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>42.54</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>10.913</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>14.734</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>2862011</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>1661011</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>3064011</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1863011</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>3262011</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>32.290999999999997</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>241.52600000000001</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>87.768000000000001</v>
@@ -1595,10 +1595,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
         <v>22.533000000000001</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C23" s="19">
         <v>4624</v>
